--- a/cohesion_conflict_clean-ODKX/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesion_conflict_clean-ODKX/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="580" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-620" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
   <si>
     <t>clause</t>
   </si>
@@ -539,6 +539,27 @@
   </si>
   <si>
     <t>families subform</t>
+  </si>
+  <si>
+    <t>social_network</t>
+  </si>
+  <si>
+    <t>Social Network survey</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('social_network')</t>
+  </si>
+  <si>
+    <t>Social Network Questions</t>
+  </si>
+  <si>
+    <t>social_capital</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('social_capital')</t>
+  </si>
+  <si>
+    <t>Social Capital Ranking</t>
   </si>
 </sst>
 </file>
@@ -688,8 +709,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,7 +777,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -761,6 +786,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -769,6 +796,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1695,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1785,6 +1814,28 @@
         <v>159</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1797,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -2144,6 +2195,86 @@
       <c r="G30" s="14"/>
       <c r="H30" s="18"/>
     </row>
+    <row r="32" spans="1:8" ht="33" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="33" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="33" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="33" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="33" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="33" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
